--- a/selenium/src/test/resources/TestData.xlsx
+++ b/selenium/src/test/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Basil\git\Selenium_Learning\selenium\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23077E34-229F-4B41-BA8E-8B64A26B450F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9BC9CA-182C-4F3E-BA8F-87FF8C94D093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
     <sheet name="HomePage" sheetId="2" r:id="rId2"/>
     <sheet name="RegisterPage" sheetId="3" r:id="rId3"/>
+    <sheet name="EditPage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>basil@ariesesolutions.com</t>
   </si>
@@ -60,6 +61,9 @@
   </si>
   <si>
     <t>Login was unsuccessful. Please correct the errors and try again.The credentials provided are incorrect</t>
+  </si>
+  <si>
+    <t>Mr</t>
   </si>
 </sst>
 </file>
@@ -412,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -506,10 +510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D564910-C90A-4C67-8D88-75C827857788}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -535,10 +539,33 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" xr:uid="{89BDCF65-65C7-4B45-AD51-41134B6D1637}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0C4AA7F-9D2D-4D0D-91B9-23FAE6362E76}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>